--- a/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/final_costing_up_for_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/final_costing_up_for_leg.xlsx
@@ -749,7 +749,7 @@
         <v>11.5</v>
       </c>
       <c r="F3" t="n">
-        <v>26.26519802674606</v>
+        <v>26.26519802674607</v>
       </c>
       <c r="G3" t="n">
         <v>2.204606884827879</v>
@@ -764,7 +764,7 @@
         <v>1.146408839779006</v>
       </c>
       <c r="K3" t="n">
-        <v>2.157946051348716</v>
+        <v>2.157946051348717</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>290.125</v>
       </c>
       <c r="P3" t="n">
-        <v>158298.231113517</v>
+        <v>158298.2311135171</v>
       </c>
       <c r="Q3" t="n">
         <v>6590.78463510719</v>
@@ -793,7 +793,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>34588.79242304657</v>
+        <v>34588.79242304658</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -801,10 +801,10 @@
         <v>24556.18820958048</v>
       </c>
       <c r="Z3" t="n">
-        <v>5287.799474621133</v>
+        <v>5287.799474621134</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.6386173678992</v>
+        <v>948.6386173678993</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>435238.1440365452</v>
+        <v>435238.1440365453</v>
       </c>
       <c r="AL3" t="n">
-        <v>458371.0513920876</v>
+        <v>458371.0513920877</v>
       </c>
       <c r="AM3" t="n">
         <v>5.522542787856476</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.920289855072465</v>
+        <v>1.920289855072466</v>
       </c>
       <c r="K4" t="n">
         <v>1.355498721227623</v>
@@ -883,7 +883,7 @@
         <v>164126.0255391458</v>
       </c>
       <c r="Q4" t="n">
-        <v>5458.802525817804</v>
+        <v>5458.802525817805</v>
       </c>
       <c r="R4" t="n">
         <v>7</v>
@@ -902,7 +902,7 @@
         <v>15424.79789775444</v>
       </c>
       <c r="Z4" t="n">
-        <v>2318.718377093461</v>
+        <v>2318.718377093462</v>
       </c>
       <c r="AA4" t="n">
         <v>595.8807134894097</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.920289855072465</v>
+        <v>1.920289855072466</v>
       </c>
       <c r="K6" t="n">
         <v>1.355498721227623</v>
@@ -1085,7 +1085,7 @@
         <v>163166.2242202034</v>
       </c>
       <c r="Q6" t="n">
-        <v>5458.802525817804</v>
+        <v>5458.802525817805</v>
       </c>
       <c r="R6" t="n">
         <v>7</v>
@@ -1104,7 +1104,7 @@
         <v>15424.79789775444</v>
       </c>
       <c r="Z6" t="n">
-        <v>2318.718377093461</v>
+        <v>2318.718377093462</v>
       </c>
       <c r="AA6" t="n">
         <v>595.8807134894097</v>
@@ -1133,7 +1133,7 @@
         <v>472123.0641371993</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.907982342211298</v>
+        <v>8.907982342211296</v>
       </c>
     </row>
     <row r="7">
@@ -1618,7 +1618,7 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>5281.699890109891</v>
+        <v>5281.69989010989</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>1.176470588235295</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>367047.7201229081</v>
       </c>
       <c r="Q28" t="n">
-        <v>6222.138139418979</v>
+        <v>6222.138139418978</v>
       </c>
       <c r="R28" t="n">
         <v>7</v>
@@ -3323,13 +3323,13 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>13387.56043956045</v>
+        <v>13387.56043956044</v>
       </c>
       <c r="Z28" t="n">
         <v>1818.29877181642</v>
       </c>
       <c r="AA28" t="n">
-        <v>696.5767122902674</v>
+        <v>696.5767122902673</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -3695,7 +3695,7 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>9265.191428571428</v>
+        <v>9265.191428571427</v>
       </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
@@ -5063,7 +5063,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="K46" t="n">
-        <v>1.176470588235295</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>352857.5498904051</v>
       </c>
       <c r="Q46" t="n">
-        <v>6044.009540087876</v>
+        <v>6044.009540087875</v>
       </c>
       <c r="R46" t="n">
         <v>7</v>
@@ -5097,13 +5097,13 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="n">
-        <v>13387.56043956045</v>
+        <v>13387.56043956044</v>
       </c>
       <c r="Z46" t="n">
         <v>1818.29877181642</v>
       </c>
       <c r="AA46" t="n">
-        <v>670.6213690827504</v>
+        <v>670.6213690827502</v>
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
@@ -5152,7 +5152,7 @@
         <v>22.99123181764533</v>
       </c>
       <c r="G47" t="n">
-        <v>2.012704714640199</v>
+        <v>2.012704714640198</v>
       </c>
       <c r="H47" t="n">
         <v>65.83333333333333</v>
@@ -5182,7 +5182,7 @@
         <v>408858.3442371451</v>
       </c>
       <c r="Q47" t="n">
-        <v>7372.256071646398</v>
+        <v>7372.256071646396</v>
       </c>
       <c r="R47" t="n">
         <v>7</v>
@@ -5193,24 +5193,24 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>27981.5668202765</v>
+        <v>27981.56682027649</v>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="n">
-        <v>19865.4122651542</v>
+        <v>19865.41226515419</v>
       </c>
       <c r="Z47" t="n">
-        <v>3614.290794912378</v>
+        <v>3614.290794912376</v>
       </c>
       <c r="AA47" t="n">
-        <v>921.5996547982837</v>
+        <v>921.5996547982834</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>5975.341010280043</v>
+        <v>5975.341010280042</v>
       </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.920289855072465</v>
+        <v>1.920289855072466</v>
       </c>
       <c r="K54" t="n">
         <v>1.355498721227623</v>
@@ -5889,7 +5889,7 @@
         <v>153145.8984504451</v>
       </c>
       <c r="Q54" t="n">
-        <v>5458.802525817804</v>
+        <v>5458.802525817805</v>
       </c>
       <c r="R54" t="n">
         <v>7</v>
@@ -5908,7 +5908,7 @@
         <v>15424.79789775444</v>
       </c>
       <c r="Z54" t="n">
-        <v>2318.718377093461</v>
+        <v>2318.718377093462</v>
       </c>
       <c r="AA54" t="n">
         <v>595.8807134894097</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.920289855072465</v>
+        <v>1.920289855072466</v>
       </c>
       <c r="K55" t="n">
         <v>1.355498721227623</v>
@@ -5990,7 +5990,7 @@
         <v>153145.8984504451</v>
       </c>
       <c r="Q55" t="n">
-        <v>5458.802525817804</v>
+        <v>5458.802525817805</v>
       </c>
       <c r="R55" t="n">
         <v>7</v>
@@ -6009,7 +6009,7 @@
         <v>15424.79789775444</v>
       </c>
       <c r="Z55" t="n">
-        <v>2318.718377093461</v>
+        <v>2318.718377093462</v>
       </c>
       <c r="AA55" t="n">
         <v>595.8807134894097</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.920289855072465</v>
+        <v>1.920289855072466</v>
       </c>
       <c r="K56" t="n">
         <v>1.355498721227623</v>
@@ -6091,7 +6091,7 @@
         <v>157791.3368341262</v>
       </c>
       <c r="Q56" t="n">
-        <v>5458.802525817804</v>
+        <v>5458.802525817805</v>
       </c>
       <c r="R56" t="n">
         <v>7</v>
@@ -6110,7 +6110,7 @@
         <v>15424.79789775444</v>
       </c>
       <c r="Z56" t="n">
-        <v>2318.718377093461</v>
+        <v>2318.718377093462</v>
       </c>
       <c r="AA56" t="n">
         <v>595.8807134894097</v>
@@ -6139,7 +6139,7 @@
         <v>460563.7930735085</v>
       </c>
       <c r="AM56" t="n">
-        <v>8.689882888179397</v>
+        <v>8.689882888179396</v>
       </c>
     </row>
     <row r="57">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.877394636015327</v>
+        <v>1.877394636015328</v>
       </c>
       <c r="K57" t="n">
         <v>1.325219743069643</v>
@@ -6192,7 +6192,7 @@
         <v>88041.88242142374</v>
       </c>
       <c r="Q57" t="n">
-        <v>5378.205512329308</v>
+        <v>5378.205512329309</v>
       </c>
       <c r="R57" t="n">
         <v>7</v>
@@ -6203,7 +6203,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="n">
-        <v>21241.37931034484</v>
+        <v>21241.37931034485</v>
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
@@ -6211,10 +6211,10 @@
         <v>15080.24049513706</v>
       </c>
       <c r="Z57" t="n">
-        <v>2229.930294543097</v>
+        <v>2229.930294543098</v>
       </c>
       <c r="AA57" t="n">
-        <v>582.5699970527561</v>
+        <v>582.5699970527562</v>
       </c>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
@@ -6240,7 +6240,7 @@
         <v>310414.738160686</v>
       </c>
       <c r="AM57" t="n">
-        <v>6.334994656340528</v>
+        <v>6.334994656340526</v>
       </c>
     </row>
     <row r="58">
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.877394636015327</v>
+        <v>1.877394636015328</v>
       </c>
       <c r="K59" t="n">
         <v>1.325219743069643</v>
@@ -6394,7 +6394,7 @@
         <v>88761.05514971568</v>
       </c>
       <c r="Q59" t="n">
-        <v>5378.205512329308</v>
+        <v>5378.205512329309</v>
       </c>
       <c r="R59" t="n">
         <v>7</v>
@@ -6405,7 +6405,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>21241.37931034484</v>
+        <v>21241.37931034485</v>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
@@ -6413,10 +6413,10 @@
         <v>15080.24049513706</v>
       </c>
       <c r="Z59" t="n">
-        <v>2229.930294543097</v>
+        <v>2229.930294543098</v>
       </c>
       <c r="AA59" t="n">
-        <v>582.5699970527561</v>
+        <v>582.5699970527562</v>
       </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
@@ -6442,7 +6442,7 @@
         <v>311972.6739183998</v>
       </c>
       <c r="AM59" t="n">
-        <v>6.366789263640809</v>
+        <v>6.366789263640806</v>
       </c>
     </row>
     <row r="60">
@@ -6624,7 +6624,7 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="n">
-        <v>5320.155708989804</v>
+        <v>5320.155708989803</v>
       </c>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
@@ -6697,7 +6697,7 @@
         <v>316648.2769656646</v>
       </c>
       <c r="Q62" t="n">
-        <v>5569.320405920691</v>
+        <v>5569.320405920692</v>
       </c>
       <c r="R62" t="n">
         <v>7</v>
@@ -6719,13 +6719,13 @@
         <v>1743.587162554586</v>
       </c>
       <c r="AA62" t="n">
-        <v>597.8806950481895</v>
+        <v>597.8806950481896</v>
       </c>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="n">
-        <v>5334.965395336372</v>
+        <v>5334.965395336371</v>
       </c>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
@@ -6798,7 +6798,7 @@
         <v>316648.2769656646</v>
       </c>
       <c r="Q63" t="n">
-        <v>5569.320405920691</v>
+        <v>5569.320405920692</v>
       </c>
       <c r="R63" t="n">
         <v>7</v>
@@ -6820,13 +6820,13 @@
         <v>1743.587162554586</v>
       </c>
       <c r="AA63" t="n">
-        <v>597.8806950481895</v>
+        <v>597.8806950481896</v>
       </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="n">
-        <v>5334.965395336372</v>
+        <v>5334.965395336371</v>
       </c>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
@@ -6881,7 +6881,7 @@
         <v>2.643678160919539</v>
       </c>
       <c r="K64" t="n">
-        <v>1.866125760649087</v>
+        <v>1.866125760649086</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6910,15 +6910,15 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>29911.33004926108</v>
+        <v>29911.33004926107</v>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="n">
-        <v>21235.4406972338</v>
+        <v>21235.44069723379</v>
       </c>
       <c r="Z64" t="n">
-        <v>4070.68000904926</v>
+        <v>4070.680009049257</v>
       </c>
       <c r="AA64" t="n">
         <v>1382.714052411415</v>
@@ -6927,7 +6927,7 @@
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="n">
-        <v>6104.277533156498</v>
+        <v>6104.277533156497</v>
       </c>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
@@ -6982,7 +6982,7 @@
         <v>2.643678160919539</v>
       </c>
       <c r="K65" t="n">
-        <v>1.866125760649087</v>
+        <v>1.866125760649086</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -7011,15 +7011,15 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="n">
-        <v>29911.33004926108</v>
+        <v>29911.33004926107</v>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="n">
-        <v>21235.4406972338</v>
+        <v>21235.44069723379</v>
       </c>
       <c r="Z65" t="n">
-        <v>4070.68000904926</v>
+        <v>4070.680009049257</v>
       </c>
       <c r="AA65" t="n">
         <v>1382.714052411415</v>
@@ -7028,7 +7028,7 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="n">
-        <v>6104.277533156498</v>
+        <v>6104.277533156497</v>
       </c>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
@@ -7285,7 +7285,7 @@
         <v>2.407407407407408</v>
       </c>
       <c r="K68" t="n">
-        <v>1.699346405228759</v>
+        <v>1.699346405228758</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>391780.188304365</v>
       </c>
       <c r="Q68" t="n">
-        <v>7104.600635416208</v>
+        <v>7104.600635416206</v>
       </c>
       <c r="R68" t="n">
         <v>7</v>
@@ -7314,24 +7314,24 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>27238.09523809525</v>
+        <v>27238.09523809524</v>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="n">
-        <v>19337.58730158731</v>
+        <v>19337.5873015873</v>
       </c>
       <c r="Z68" t="n">
-        <v>3445.591499809802</v>
+        <v>3445.591499809801</v>
       </c>
       <c r="AA68" t="n">
-        <v>874.2404645379357</v>
+        <v>874.2404645379355</v>
       </c>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="n">
-        <v>5925.666190476191</v>
+        <v>5925.66619047619</v>
       </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
@@ -7351,7 +7351,7 @@
         <v>959323.7266451423</v>
       </c>
       <c r="AM68" t="n">
-        <v>14.75882656377141</v>
+        <v>14.75882656377142</v>
       </c>
     </row>
     <row r="69">
@@ -8081,7 +8081,7 @@
         <v>22.99123181764533</v>
       </c>
       <c r="G76" t="n">
-        <v>2.012704714640199</v>
+        <v>2.012704714640198</v>
       </c>
       <c r="H76" t="n">
         <v>45.17391304347826</v>
@@ -8111,7 +8111,7 @@
         <v>280552.880349407</v>
       </c>
       <c r="Q76" t="n">
-        <v>6551.089209219909</v>
+        <v>6551.089209219908</v>
       </c>
       <c r="R76" t="n">
         <v>7</v>
@@ -8122,24 +8122,24 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>27981.5668202765</v>
+        <v>27981.56682027649</v>
       </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="n">
-        <v>19865.4122651542</v>
+        <v>19865.41226515419</v>
       </c>
       <c r="Z76" t="n">
-        <v>3614.290794912378</v>
+        <v>3614.290794912376</v>
       </c>
       <c r="AA76" t="n">
-        <v>767.4276261373036</v>
+        <v>767.4276261373034</v>
       </c>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="n">
-        <v>5975.341010280043</v>
+        <v>5975.341010280042</v>
       </c>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
@@ -8396,7 +8396,7 @@
         <v>2.643678160919539</v>
       </c>
       <c r="K79" t="n">
-        <v>1.866125760649087</v>
+        <v>1.866125760649086</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>479704.555542457</v>
       </c>
       <c r="Q79" t="n">
-        <v>8366.552519259825</v>
+        <v>8366.552519259823</v>
       </c>
       <c r="R79" t="n">
         <v>7</v>
@@ -8425,15 +8425,15 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="n">
-        <v>29911.33004926108</v>
+        <v>29911.33004926107</v>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="n">
-        <v>21235.4406972338</v>
+        <v>21235.44069723379</v>
       </c>
       <c r="Z79" t="n">
-        <v>4070.68000904926</v>
+        <v>4070.680009049257</v>
       </c>
       <c r="AA79" t="n">
         <v>1105.118599588376</v>
@@ -8442,7 +8442,7 @@
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="n">
-        <v>6104.277533156498</v>
+        <v>6104.277533156497</v>
       </c>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
         <v>13849.2004547177</v>
       </c>
       <c r="Z82" t="n">
-        <v>1926.51594009963</v>
+        <v>1926.515940099629</v>
       </c>
       <c r="AA82" t="n">
         <v>535.0132625994696</v>
@@ -8745,7 +8745,7 @@
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="n">
-        <v>5409.141496779083</v>
+        <v>5409.141496779082</v>
       </c>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
@@ -8753,7 +8753,7 @@
         <v>5521</v>
       </c>
       <c r="AI82" t="n">
-        <v>127298.3512361467</v>
+        <v>127298.3512361466</v>
       </c>
       <c r="AJ82" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>13849.2004547177</v>
       </c>
       <c r="Z83" t="n">
-        <v>1926.51594009963</v>
+        <v>1926.515940099629</v>
       </c>
       <c r="AA83" t="n">
         <v>535.0132625994696</v>
@@ -8846,7 +8846,7 @@
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="n">
-        <v>5409.141496779083</v>
+        <v>5409.141496779082</v>
       </c>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
@@ -8854,7 +8854,7 @@
         <v>5521</v>
       </c>
       <c r="AI83" t="n">
-        <v>127298.3512361467</v>
+        <v>127298.3512361466</v>
       </c>
       <c r="AJ83" t="n">
         <v>0</v>
@@ -8886,7 +8886,7 @@
         <v>11.5</v>
       </c>
       <c r="F84" t="n">
-        <v>17.34497766036298</v>
+        <v>17.34497766036299</v>
       </c>
       <c r="G84" t="n">
         <v>1.718866396761134</v>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.578947368421052</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="K84" t="n">
         <v>1.114551083591331</v>
@@ -8916,7 +8916,7 @@
         <v>290.125</v>
       </c>
       <c r="P84" t="n">
-        <v>56766.96967627015</v>
+        <v>56766.96967627016</v>
       </c>
       <c r="Q84" t="n">
         <v>4834.013067898371</v>
@@ -8938,7 +8938,7 @@
         <v>12682.95199537305</v>
       </c>
       <c r="Z84" t="n">
-        <v>1658.975610734384</v>
+        <v>1658.975610734385</v>
       </c>
       <c r="AA84" t="n">
         <v>489.9595141700404</v>
@@ -8967,7 +8967,7 @@
         <v>239371.493950994</v>
       </c>
       <c r="AM84" t="n">
-        <v>5.319366532244312</v>
+        <v>5.319366532244311</v>
       </c>
     </row>
     <row r="85">
